--- a/bin/innRoad/testdata/TestData.xlsx
+++ b/bin/innRoad/testdata/TestData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Innroad_DataDriven\InnRoad_DataDriven_FrameWork\src\innRoad\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\eclipse\Workspace\InnRoad_DataDriven_FrameWork\src\innRoad\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Suite_Classes" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="274">
   <si>
     <t>TCID</t>
   </si>
@@ -848,12 +848,15 @@
   </si>
   <si>
     <t>Aug</t>
+  </si>
+  <si>
+    <t>Billing_Card_Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1069,6 +1072,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1104,6 +1124,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1283,7 +1320,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CW2"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="BC1" sqref="BC1:BG2"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BK1" sqref="BK1:BK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4320,10 +4357,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4347,9 +4384,13 @@
     <col min="23" max="23" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
@@ -4449,8 +4490,23 @@
       <c r="AG1" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="AH1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>251</v>
       </c>
@@ -4549,6 +4605,21 @@
       </c>
       <c r="AG2" s="5" t="s">
         <v>89</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
